--- a/5. MBart50 Tranning/EXP 03/evaluation_metrics.xlsx
+++ b/5. MBart50 Tranning/EXP 03/evaluation_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\S2S Research\Machine Translation ta-si\5. MBart50 Tranning\EXP 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB072F2-3043-4B57-B7DF-593A04BD5A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12714ACA-55B4-436B-903C-CE22BB2AE028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,16 +94,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -389,21 +388,19 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -436,127 +433,167 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.7406999999999999</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.786165</v>
-      </c>
-      <c r="D2" s="3">
-        <v>12.748211</v>
-      </c>
-      <c r="E2" s="3">
-        <v>7.1112999999999996E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45.091341999999997</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.5660000000000001E-3</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.17910100000000001</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.94974800000000004</v>
+      <c r="B2" s="2">
+        <v>1.9360999999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.786041</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12.592358000000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.2396000000000002E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45.049695999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.9610000000000001E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.17980699999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.94915799999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.4288000000000001</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.640244</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14.392443999999999</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.0398000000000002E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>26.655771999999999</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4.2440000000000004E-3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.192524</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.95293700000000003</v>
+      <c r="B3" s="2">
+        <v>1.4132</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.640147</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14.858947000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.1390999999999996E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>47.434932000000003</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.7239999999999999E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.198242</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.95282800000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.0381</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.610924</v>
-      </c>
-      <c r="D4" s="3">
-        <v>15.656869</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7.1623999999999993E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>48.222526000000002</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4.2440000000000004E-3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.202574</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.95442899999999997</v>
+      <c r="B4" s="2">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6072489999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15.577054</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.9051000000000001E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>48.295175999999998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.8230000000000001E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.20166200000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.95280799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.631874</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16.166633999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.1522000000000002E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>48.649233000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.9090000000000002E-3</v>
+      </c>
+      <c r="H5">
+        <v>0.20722499999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.954206</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.658258</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16.502095000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>49.112487000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.711E-3</v>
+      </c>
+      <c r="H6">
+        <v>0.20783799999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.95445599999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
